--- a/Marks.xlsx
+++ b/Marks.xlsx
@@ -1,21 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vicen\git\algorithmicsGarciaDiazVicenteUO42478\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DD47017-13A3-40B4-A991-1C202C3B8F53}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{4B75DDF2-FAFD-41DF-BD15-78FA89FEE8DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="20790" windowHeight="11820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Marks" sheetId="4" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -159,9 +155,6 @@
     <t>Please, don't change this file after you indicate your name</t>
   </si>
   <si>
-    <t>García Díaz, Vicente</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Total maximum possible </t>
     </r>
@@ -206,6 +199,9 @@
   </si>
   <si>
     <t>Each session will be graded with a score between 0 and 10</t>
+  </si>
+  <si>
+    <t>Gómez Menéndez, Laura</t>
   </si>
 </sst>
 </file>
@@ -874,7 +870,7 @@
   <dimension ref="A1:J136"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -901,25 +897,25 @@
         <v>0</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>15</v>
       </c>
       <c r="I3" s="6" t="s">
         <v>2</v>
@@ -930,7 +926,7 @@
     </row>
     <row r="4" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -1030,12 +1026,12 @@
     </row>
     <row r="15" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">

--- a/Marks.xlsx
+++ b/Marks.xlsx
@@ -1,17 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{4B75DDF2-FAFD-41DF-BD15-78FA89FEE8DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Repos\alg-1-GómezMenéndezLaura-UO275725\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D3FABF0-BF4E-4FF2-8821-01D7C363FDCC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="20790" windowHeight="11820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Marks" sheetId="4" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -19,6 +23,7 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -26,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Student</t>
   </si>
@@ -202,6 +207,12 @@
   </si>
   <si>
     <t>Gómez Menéndez, Laura</t>
+  </si>
+  <si>
+    <t>Mark (scale 1-10)</t>
+  </si>
+  <si>
+    <t>TravelPath is not working as expected. The high-performance option is  the best one because that way, the CPU is more stable and does not have to switch between different modes, altering the results. Loop1/Loop2 should tend to 0. Unknown is n^3</t>
   </si>
 </sst>
 </file>
@@ -253,7 +264,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -298,11 +309,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -317,19 +339,23 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="13">
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="8"/>
@@ -337,12 +363,29 @@
         <right style="thin">
           <color indexed="8"/>
         </right>
-        <top style="thin">
-          <color indexed="8"/>
-        </top>
+        <top/>
         <bottom style="thin">
           <color indexed="8"/>
         </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="8"/>
+        </left>
+        <right style="thin">
+          <color indexed="8"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color indexed="8"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -528,19 +571,24 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla14515" displayName="Tabla14515" ref="A3:J4" totalsRowShown="0" headerRowDxfId="11" tableBorderDxfId="10">
-  <autoFilter ref="A3:J4" xr:uid="{00000000-0009-0000-0100-00000E000000}"/>
-  <tableColumns count="10">
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Student" dataDxfId="9"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Session 0, 1.1, 1.2" dataDxfId="8"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Session 2 (Sorting)" dataDxfId="7"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Session 3 (D&amp;C)" dataDxfId="6"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Session 4 (Greedy)" dataDxfId="5"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Session 5 (Dynamic Prog.)" dataDxfId="4"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="Session 6 (Backtracking)" dataDxfId="3"/>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="Session 7 (Branch&amp;Bound)" dataDxfId="2"/>
-    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="Test mark" dataDxfId="1"/>
-    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="Final mark" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla14515" displayName="Tabla14515" ref="A3:K4" totalsRowShown="0" headerRowDxfId="12" tableBorderDxfId="11">
+  <autoFilter ref="A3:K4" xr:uid="{00000000-0009-0000-0100-00000E000000}"/>
+  <tableColumns count="11">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Student" dataDxfId="10"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Session 0, 1.1, 1.2" dataDxfId="9"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Session 2 (Sorting)" dataDxfId="8"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Session 3 (D&amp;C)" dataDxfId="7"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Session 4 (Greedy)" dataDxfId="6"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Session 5 (Dynamic Prog.)" dataDxfId="5"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="Session 6 (Backtracking)" dataDxfId="4"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="Session 7 (Branch&amp;Bound)" dataDxfId="3"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="Test mark" dataDxfId="2"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="Mark (scale 1-10)" dataDxfId="1">
+      <calculatedColumnFormula>(B4*0.1+C4*0.1+D4*0.133+E4*0.133+F4*0.134+G4*0.2+H4*0.2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="1" xr3:uid="{7F71E867-A25C-416E-B908-961C7D7E5973}" name="Final mark" dataDxfId="0">
+      <calculatedColumnFormula>IF(AND(J4&gt;=9,J4&lt;=10),7, IF(AND(J4&gt;=8,J4&lt;9),6.5, IF(AND(J4&gt;=7,J4&lt;8),6, IF(AND(J4&gt;=6,J4&lt;7),5.5, IF(AND(J4&gt;=5,J4&lt;6),5,4)))))</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -867,10 +915,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J136"/>
+  <dimension ref="A1:K136"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B5" sqref="B5:B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -887,12 +935,12 @@
     <col min="10" max="10" width="20.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -921,14 +969,19 @@
         <v>2</v>
       </c>
       <c r="J3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="4"/>
+      <c r="B4" s="4">
+        <v>9</v>
+      </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -936,100 +989,109 @@
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-    </row>
-    <row r="5" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-    </row>
-    <row r="6" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-    </row>
-    <row r="7" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-    </row>
-    <row r="8" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-    </row>
-    <row r="9" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-    </row>
-    <row r="10" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-    </row>
-    <row r="11" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-    </row>
-    <row r="12" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-    </row>
-    <row r="13" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J4" s="8">
+        <f>(B4*0.1+C4*0.1+D4*0.133+E4*0.133+F4*0.134+G4*0.2+H4*0.2)</f>
+        <v>0.9</v>
+      </c>
+      <c r="K4" s="9">
+        <f>IF(AND(J4&gt;=9,J4&lt;=10),7, IF(AND(J4&gt;=8,J4&lt;9),6.5, IF(AND(J4&gt;=7,J4&lt;8),6, IF(AND(J4&gt;=6,J4&lt;7),5.5, IF(AND(J4&gt;=5,J4&lt;6),5,4)))))</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+    </row>
+    <row r="6" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+    </row>
+    <row r="7" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+    </row>
+    <row r="8" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+    </row>
+    <row r="9" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+    </row>
+    <row r="10" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+    </row>
+    <row r="11" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+    </row>
+    <row r="12" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+    </row>
+    <row r="13" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>7</v>
       </c>

--- a/Marks.xlsx
+++ b/Marks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Repos\alg-1-GómezMenéndezLaura-UO275725\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D3FABF0-BF4E-4FF2-8821-01D7C363FDCC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8A30C86-746A-49BA-B6F2-C95AE70EF7EB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Student</t>
   </si>
@@ -213,6 +213,9 @@
   </si>
   <si>
     <t>TravelPath is not working as expected. The high-performance option is  the best one because that way, the CPU is more stable and does not have to switch between different modes, altering the results. Loop1/Loop2 should tend to 0. Unknown is n^3</t>
+  </si>
+  <si>
+    <t>No new files were added to Github…</t>
   </si>
 </sst>
 </file>
@@ -918,7 +921,7 @@
   <dimension ref="A1:K136"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:B12"/>
+      <selection activeCell="C5" sqref="C5:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1002,7 +1005,9 @@
       <c r="B5" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="10"/>
+      <c r="C5" s="10" t="s">
+        <v>19</v>
+      </c>
       <c r="D5" s="10"/>
       <c r="E5" s="10"/>
       <c r="F5" s="10"/>

--- a/Marks.xlsx
+++ b/Marks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Repos\alg-1-GómezMenéndezLaura-UO275725\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8A30C86-746A-49BA-B6F2-C95AE70EF7EB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC56FC38-1592-47BD-B19A-B3CABC6BB6DD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -215,7 +215,7 @@
     <t>TravelPath is not working as expected. The high-performance option is  the best one because that way, the CPU is more stable and does not have to switch between different modes, altering the results. Loop1/Loop2 should tend to 0. Unknown is n^3</t>
   </si>
   <si>
-    <t>No new files were added to Github…</t>
+    <t>Very good. Remember that Quicksort for, if you use a good pivot as the central element, has a O(nlogn) complexity. What it makes the complexity quadratic is a badly chosen pivot. QuicksortFateful, since the pivot is bad, should give a quadratic complexity (for n big enough) regardless of the specific input numbers. Please, remove the error you have in the Bubble file</t>
   </si>
 </sst>
 </file>
@@ -928,7 +928,7 @@
   <cols>
     <col min="1" max="1" width="27.28515625" customWidth="1"/>
     <col min="2" max="2" width="26.42578125" customWidth="1"/>
-    <col min="3" max="3" width="26.5703125" customWidth="1"/>
+    <col min="3" max="3" width="37" customWidth="1"/>
     <col min="4" max="4" width="22.7109375" customWidth="1"/>
     <col min="5" max="5" width="27.140625" customWidth="1"/>
     <col min="6" max="6" width="30.7109375" customWidth="1"/>
@@ -985,7 +985,9 @@
       <c r="B4" s="4">
         <v>9</v>
       </c>
-      <c r="C4" s="4"/>
+      <c r="C4" s="4">
+        <v>10</v>
+      </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
@@ -994,7 +996,7 @@
       <c r="I4" s="4"/>
       <c r="J4" s="8">
         <f>(B4*0.1+C4*0.1+D4*0.133+E4*0.133+F4*0.134+G4*0.2+H4*0.2)</f>
-        <v>0.9</v>
+        <v>1.9</v>
       </c>
       <c r="K4" s="9">
         <f>IF(AND(J4&gt;=9,J4&lt;=10),7, IF(AND(J4&gt;=8,J4&lt;9),6.5, IF(AND(J4&gt;=7,J4&lt;8),6, IF(AND(J4&gt;=6,J4&lt;7),5.5, IF(AND(J4&gt;=5,J4&lt;6),5,4)))))</f>
@@ -1075,7 +1077,7 @@
       <c r="H11" s="11"/>
       <c r="I11" s="11"/>
     </row>
-    <row r="12" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>

--- a/Marks.xlsx
+++ b/Marks.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Repos\alg-1-GómezMenéndezLaura-UO275725\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC56FC38-1592-47BD-B19A-B3CABC6BB6DD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C885A18-96AA-4136-BCB7-4E0AD4BE6C04}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Student</t>
   </si>
@@ -216,6 +216,9 @@
   </si>
   <si>
     <t>Very good. Remember that Quicksort for, if you use a good pivot as the central element, has a O(nlogn) complexity. What it makes the complexity quadratic is a badly chosen pivot. QuicksortFateful, since the pivot is bad, should give a quadratic complexity (for n big enough) regardless of the specific input numbers. Please, remove the error you have in the Bubble file</t>
+  </si>
+  <si>
+    <t>The D&amp;C version is not implemented. Please, check the video of the last seminar (the implementation should be very similar to Mergesort) *** The problem with the time is that you are executing the algorithm in the Constructor but when you calculate the time (t2-t1) you are just calling start() that the only thing it does is to return the previously calculated value *** The rest of the things are fine</t>
   </si>
 </sst>
 </file>
@@ -921,7 +924,7 @@
   <dimension ref="A1:K136"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:C12"/>
+      <selection activeCell="D5" sqref="D5:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -988,7 +991,9 @@
       <c r="C4" s="4">
         <v>10</v>
       </c>
-      <c r="D4" s="4"/>
+      <c r="D4" s="4">
+        <v>6</v>
+      </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
@@ -996,7 +1001,7 @@
       <c r="I4" s="4"/>
       <c r="J4" s="8">
         <f>(B4*0.1+C4*0.1+D4*0.133+E4*0.133+F4*0.134+G4*0.2+H4*0.2)</f>
-        <v>1.9</v>
+        <v>2.698</v>
       </c>
       <c r="K4" s="9">
         <f>IF(AND(J4&gt;=9,J4&lt;=10),7, IF(AND(J4&gt;=8,J4&lt;9),6.5, IF(AND(J4&gt;=7,J4&lt;8),6, IF(AND(J4&gt;=6,J4&lt;7),5.5, IF(AND(J4&gt;=5,J4&lt;6),5,4)))))</f>
@@ -1010,7 +1015,9 @@
       <c r="C5" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="10"/>
+      <c r="D5" s="10" t="s">
+        <v>20</v>
+      </c>
       <c r="E5" s="10"/>
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
@@ -1077,7 +1084,7 @@
       <c r="H11" s="11"/>
       <c r="I11" s="11"/>
     </row>
-    <row r="12" spans="1:11" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" ht="102.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>

--- a/Marks.xlsx
+++ b/Marks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Repos\alg-1-GómezMenéndezLaura-UO275725\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C885A18-96AA-4136-BCB7-4E0AD4BE6C04}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09E879D1-3672-4A06-B87D-310EA2C9D2EB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Student</t>
   </si>
@@ -219,6 +219,9 @@
   </si>
   <si>
     <t>The D&amp;C version is not implemented. Please, check the video of the last seminar (the implementation should be very similar to Mergesort) *** The problem with the time is that you are executing the algorithm in the Constructor but when you calculate the time (t2-t1) you are just calling start() that the only thing it does is to return the previously calculated value *** The rest of the things are fine</t>
+  </si>
+  <si>
+    <t>Good but the expected complexity for greedy 2 and greedy 3 is O(nlogn) if you sort the elements beforehand or if you use a priority queue</t>
   </si>
 </sst>
 </file>
@@ -924,7 +927,7 @@
   <dimension ref="A1:K136"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:D12"/>
+      <selection activeCell="E5" sqref="E5:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -994,14 +997,16 @@
       <c r="D4" s="4">
         <v>6</v>
       </c>
-      <c r="E4" s="4"/>
+      <c r="E4" s="4">
+        <v>8</v>
+      </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
       <c r="J4" s="8">
         <f>(B4*0.1+C4*0.1+D4*0.133+E4*0.133+F4*0.134+G4*0.2+H4*0.2)</f>
-        <v>2.698</v>
+        <v>3.762</v>
       </c>
       <c r="K4" s="9">
         <f>IF(AND(J4&gt;=9,J4&lt;=10),7, IF(AND(J4&gt;=8,J4&lt;9),6.5, IF(AND(J4&gt;=7,J4&lt;8),6, IF(AND(J4&gt;=6,J4&lt;7),5.5, IF(AND(J4&gt;=5,J4&lt;6),5,4)))))</f>
@@ -1018,7 +1023,9 @@
       <c r="D5" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="10"/>
+      <c r="E5" s="10" t="s">
+        <v>21</v>
+      </c>
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>

--- a/Marks.xlsx
+++ b/Marks.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Repos\alg-1-GómezMenéndezLaura-UO275725\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09E879D1-3672-4A06-B87D-310EA2C9D2EB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26C214CE-1BBF-4966-A630-167EA31820EF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Student</t>
   </si>
@@ -222,6 +222,9 @@
   </si>
   <si>
     <t>Good but the expected complexity for greedy 2 and greedy 3 is O(nlogn) if you sort the elements beforehand or if you use a priority queue</t>
+  </si>
+  <si>
+    <t>Dynamic table was not created. Stack memory is around O(1) for dynamic programming and O(n) for the recursive version of the algorithm (taking into account the height of the tree of states). Complexy for recursive scheme is O(3^n) since we need to always do the 3 calls to guarantee a correct solution. The recursive implemention fails with stack overflow (too many recursive calls) and the dynamic programming fails because we are consuming too much memory to allocate the table</t>
   </si>
 </sst>
 </file>
@@ -927,7 +930,7 @@
   <dimension ref="A1:K136"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5:E12"/>
+      <selection activeCell="G5" sqref="G5:G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1000,13 +1003,15 @@
       <c r="E4" s="4">
         <v>8</v>
       </c>
-      <c r="F4" s="4"/>
+      <c r="F4" s="4">
+        <v>6.5</v>
+      </c>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
       <c r="J4" s="8">
         <f>(B4*0.1+C4*0.1+D4*0.133+E4*0.133+F4*0.134+G4*0.2+H4*0.2)</f>
-        <v>3.762</v>
+        <v>4.633</v>
       </c>
       <c r="K4" s="9">
         <f>IF(AND(J4&gt;=9,J4&lt;=10),7, IF(AND(J4&gt;=8,J4&lt;9),6.5, IF(AND(J4&gt;=7,J4&lt;8),6, IF(AND(J4&gt;=6,J4&lt;7),5.5, IF(AND(J4&gt;=5,J4&lt;6),5,4)))))</f>
@@ -1026,7 +1031,9 @@
       <c r="E5" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="10"/>
+      <c r="F5" s="10" t="s">
+        <v>22</v>
+      </c>
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
       <c r="I5" s="10"/>

--- a/Marks.xlsx
+++ b/Marks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Repos\alg-1-GómezMenéndezLaura-UO275725\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26C214CE-1BBF-4966-A630-167EA31820EF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5CC597A-CF85-48E9-969D-395C87C71E4A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Student</t>
   </si>
@@ -225,6 +225,10 @@
   </si>
   <si>
     <t>Dynamic table was not created. Stack memory is around O(1) for dynamic programming and O(n) for the recursive version of the algorithm (taking into account the height of the tree of states). Complexy for recursive scheme is O(3^n) since we need to always do the 3 calls to guarantee a correct solution. The recursive implemention fails with stack overflow (too many recursive calls) and the dynamic programming fails because we are consuming too much memory to allocate the table</t>
+  </si>
+  <si>
+    <t>Please, try to implement it and you can contact me if you have any question. Remember that in the test of the last day we can ask for a modification of any of the labs
+Complexity should be something close to O(3^n)</t>
   </si>
 </sst>
 </file>
@@ -930,7 +934,7 @@
   <dimension ref="A1:K136"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5:G12"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1006,16 +1010,18 @@
       <c r="F4" s="4">
         <v>6.5</v>
       </c>
-      <c r="G4" s="4"/>
+      <c r="G4" s="4">
+        <v>3</v>
+      </c>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
       <c r="J4" s="8">
         <f>(B4*0.1+C4*0.1+D4*0.133+E4*0.133+F4*0.134+G4*0.2+H4*0.2)</f>
-        <v>4.633</v>
+        <v>5.2330000000000005</v>
       </c>
       <c r="K4" s="9">
         <f>IF(AND(J4&gt;=9,J4&lt;=10),7, IF(AND(J4&gt;=8,J4&lt;9),6.5, IF(AND(J4&gt;=7,J4&lt;8),6, IF(AND(J4&gt;=6,J4&lt;7),5.5, IF(AND(J4&gt;=5,J4&lt;6),5,4)))))</f>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1034,7 +1040,9 @@
       <c r="F5" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="10"/>
+      <c r="G5" s="10" t="s">
+        <v>23</v>
+      </c>
       <c r="H5" s="10"/>
       <c r="I5" s="10"/>
     </row>

--- a/Marks.xlsx
+++ b/Marks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Repos\alg-1-GómezMenéndezLaura-UO275725\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5CC597A-CF85-48E9-969D-395C87C71E4A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FB93B99-F8B7-4F79-9715-557DD3BA6ED0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Student</t>
   </si>
@@ -229,6 +229,12 @@
   <si>
     <t>Please, try to implement it and you can contact me if you have any question. Remember that in the test of the last day we can ask for a modification of any of the labs
 Complexity should be something close to O(3^n)</t>
+  </si>
+  <si>
+    <t>Not implemented</t>
+  </si>
+  <si>
+    <t>NA</t>
   </si>
 </sst>
 </file>
@@ -933,8 +939,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K136"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5:G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1013,8 +1019,12 @@
       <c r="G4" s="4">
         <v>3</v>
       </c>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
+      <c r="H4" s="4">
+        <v>0</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="J4" s="8">
         <f>(B4*0.1+C4*0.1+D4*0.133+E4*0.133+F4*0.134+G4*0.2+H4*0.2)</f>
         <v>5.2330000000000005</v>
@@ -1043,7 +1053,9 @@
       <c r="G5" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="10"/>
+      <c r="H5" s="10" t="s">
+        <v>24</v>
+      </c>
       <c r="I5" s="10"/>
     </row>
     <row r="6" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
